--- a/data/outputs/management_elsevier/85.xlsx
+++ b/data/outputs/management_elsevier/85.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS111"/>
+  <dimension ref="A1:BU111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -939,6 +949,12 @@
           <t>2-s2.0-84942564216</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>1351</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1144,6 +1160,12 @@
           <t>2-s2.0-84943329593</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>1288</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1353,6 +1375,12 @@
           <t>2-s2.0-84943277914</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>2842</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1562,6 +1590,12 @@
           <t>2-s2.0-84943196933</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>1760</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1767,6 +1801,12 @@
           <t>2-s2.0-84943327832</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>1226</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1978,6 +2018,12 @@
           <t>2-s2.0-84943276870</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>3079</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2201,6 +2247,12 @@
           <t>2-s2.0-84943184806</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>2133</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2406,6 +2458,12 @@
           <t>2-s2.0-84944454575</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>1093</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2627,6 +2685,12 @@
           <t>2-s2.0-84945124704</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>1169</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2840,6 +2904,12 @@
           <t>2-s2.0-84948743068</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>1448</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3045,6 +3115,12 @@
           <t>2-s2.0-84945588061</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>1037</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3250,6 +3326,12 @@
           <t>2-s2.0-84946398489</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>2710</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3455,6 +3537,12 @@
           <t>2-s2.0-84946568334</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>1263</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3668,6 +3756,12 @@
           <t>2-s2.0-84947770623</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>1645</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3873,6 +3967,12 @@
           <t>2-s2.0-84947735625</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>1127</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4088,6 +4188,12 @@
           <t>2-s2.0-84947725187</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>1146</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4297,6 +4403,12 @@
           <t>2-s2.0-84945116968</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>3573</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4502,6 +4614,12 @@
           <t>2-s2.0-84946711201</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>1251</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4723,6 +4841,12 @@
           <t>2-s2.0-84938676906</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>2023</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4936,6 +5060,12 @@
           <t>2-s2.0-84938842414</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>540</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5151,6 +5281,12 @@
           <t>2-s2.0-84939189368</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>1068</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5378,6 +5514,12 @@
           <t>2-s2.0-84939483819</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>2982</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5589,6 +5731,12 @@
           <t>2-s2.0-84940121953</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>1897</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5794,6 +5942,12 @@
           <t>2-s2.0-84940105146</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>984</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6009,6 +6163,12 @@
           <t>2-s2.0-84940110146</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>1352</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6230,6 +6390,12 @@
           <t>2-s2.0-84940106749</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>3060</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6435,6 +6601,12 @@
           <t>2-s2.0-84940383626</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>849</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6650,6 +6822,12 @@
           <t>2-s2.0-84940397256</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>844</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6859,6 +7037,12 @@
           <t>2-s2.0-84940483809</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>1063</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7064,6 +7248,12 @@
           <t>2-s2.0-84940472446</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>1775</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7285,6 +7475,12 @@
           <t>2-s2.0-84940516516</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>2686</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7502,6 +7698,12 @@
           <t>2-s2.0-84940490946</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>1367</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7719,6 +7921,12 @@
           <t>2-s2.0-84940511220</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>818</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7936,6 +8144,12 @@
           <t>2-s2.0-84941204406</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>1376</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8143,6 +8357,12 @@
           <t>2-s2.0-84941282478</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>1997</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8348,6 +8568,12 @@
           <t>2-s2.0-84930937070</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>1457</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8567,6 +8793,12 @@
           <t>2-s2.0-84930943328</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>717</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8786,6 +9018,12 @@
           <t>2-s2.0-84931265107</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>1423</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9001,6 +9239,12 @@
           <t>2-s2.0-84931270162</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>2263</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9206,6 +9450,12 @@
           <t>2-s2.0-84934988961</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>591</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9413,6 +9663,12 @@
           <t>2-s2.0-84933055861</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>6602</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9622,6 +9878,12 @@
           <t>2-s2.0-84934943787</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>1471</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9839,6 +10101,12 @@
           <t>2-s2.0-84933527141</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>1255</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10060,6 +10328,12 @@
           <t>2-s2.0-84934294042</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>589</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10279,6 +10553,12 @@
           <t>2-s2.0-84936745045</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>2184</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10496,6 +10776,12 @@
           <t>2-s2.0-84938589028</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>762</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10705,6 +10991,12 @@
           <t>2-s2.0-84937206241</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>1345</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10922,6 +11214,12 @@
           <t>2-s2.0-84937129882</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>1128</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11127,6 +11425,12 @@
           <t>2-s2.0-84937420311</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>510</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11342,6 +11646,12 @@
           <t>2-s2.0-84937936394</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>3750</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11563,6 +11873,12 @@
           <t>2-s2.0-84938053746</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>1048</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11776,6 +12092,12 @@
           <t>2-s2.0-84937827176</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>2834</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11993,6 +12315,12 @@
           <t>2-s2.0-84928165253</t>
         </is>
       </c>
+      <c r="BT54" t="n">
+        <v>1017</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12202,6 +12530,12 @@
           <t>2-s2.0-84928693261</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>721</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12425,6 +12759,12 @@
           <t>2-s2.0-84928914347</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>2071</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12630,6 +12970,12 @@
           <t>2-s2.0-84929318604</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>1600</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12845,6 +13191,12 @@
           <t>2-s2.0-84930205519</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>933</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13060,6 +13412,12 @@
           <t>2-s2.0-84930196579</t>
         </is>
       </c>
+      <c r="BT59" t="n">
+        <v>1589</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13273,6 +13631,12 @@
           <t>2-s2.0-84930209837</t>
         </is>
       </c>
+      <c r="BT60" t="n">
+        <v>1179</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13486,6 +13850,12 @@
           <t>2-s2.0-84928407151</t>
         </is>
       </c>
+      <c r="BT61" t="n">
+        <v>2840</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13707,6 +14077,12 @@
           <t>2-s2.0-84929658010</t>
         </is>
       </c>
+      <c r="BT62" t="n">
+        <v>2267</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13920,6 +14296,12 @@
           <t>2-s2.0-84923914584</t>
         </is>
       </c>
+      <c r="BT63" t="n">
+        <v>1936</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14133,6 +14515,12 @@
           <t>2-s2.0-84924199171</t>
         </is>
       </c>
+      <c r="BT64" t="n">
+        <v>1132</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14342,6 +14730,12 @@
           <t>2-s2.0-84924190538</t>
         </is>
       </c>
+      <c r="BT65" t="n">
+        <v>1131</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14559,6 +14953,12 @@
           <t>2-s2.0-84925947159</t>
         </is>
       </c>
+      <c r="BT66" t="n">
+        <v>3408</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14772,6 +15172,12 @@
           <t>2-s2.0-84924753743</t>
         </is>
       </c>
+      <c r="BT67" t="n">
+        <v>790</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14983,6 +15389,12 @@
           <t>2-s2.0-84924933370</t>
         </is>
       </c>
+      <c r="BT68" t="n">
+        <v>1221</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15204,6 +15616,12 @@
           <t>2-s2.0-84925933947</t>
         </is>
       </c>
+      <c r="BT69" t="n">
+        <v>2786</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15431,6 +15849,12 @@
           <t>2-s2.0-84925962282</t>
         </is>
       </c>
+      <c r="BT70" t="n">
+        <v>26381</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15646,6 +16070,12 @@
           <t>2-s2.0-84926660343</t>
         </is>
       </c>
+      <c r="BT71" t="n">
+        <v>6219</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15851,6 +16281,12 @@
           <t>2-s2.0-84927632088</t>
         </is>
       </c>
+      <c r="BT72" t="n">
+        <v>1391</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16068,6 +16504,12 @@
           <t>2-s2.0-84927615563</t>
         </is>
       </c>
+      <c r="BT73" t="n">
+        <v>1301</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16277,6 +16719,12 @@
           <t>2-s2.0-84927635194</t>
         </is>
       </c>
+      <c r="BT74" t="n">
+        <v>1014</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16488,6 +16936,12 @@
           <t>2-s2.0-84924077496</t>
         </is>
       </c>
+      <c r="BT75" t="n">
+        <v>2155</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16693,6 +17147,12 @@
           <t>2-s2.0-84926652167</t>
         </is>
       </c>
+      <c r="BT76" t="n">
+        <v>979</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16906,6 +17366,12 @@
           <t>2-s2.0-84928337555</t>
         </is>
       </c>
+      <c r="BT77" t="n">
+        <v>1560</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17123,6 +17589,12 @@
           <t>2-s2.0-84921664853</t>
         </is>
       </c>
+      <c r="BT78" t="n">
+        <v>2784</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17328,6 +17800,12 @@
           <t>2-s2.0-84922346767</t>
         </is>
       </c>
+      <c r="BT79" t="n">
+        <v>1461</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17541,6 +18019,12 @@
           <t>2-s2.0-84922377468</t>
         </is>
       </c>
+      <c r="BT80" t="n">
+        <v>2053</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17746,6 +18230,12 @@
           <t>2-s2.0-84922689720</t>
         </is>
       </c>
+      <c r="BT81" t="n">
+        <v>1357</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17951,6 +18441,12 @@
           <t>2-s2.0-84922718676</t>
         </is>
       </c>
+      <c r="BT82" t="n">
+        <v>1200</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -18156,6 +18652,12 @@
           <t>2-s2.0-84922755851</t>
         </is>
       </c>
+      <c r="BT83" t="n">
+        <v>1145</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18369,6 +18871,12 @@
           <t>2-s2.0-84924971579</t>
         </is>
       </c>
+      <c r="BT84" t="n">
+        <v>1023</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18592,6 +19100,12 @@
           <t>2-s2.0-84922757503</t>
         </is>
       </c>
+      <c r="BT85" t="n">
+        <v>2428</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18797,6 +19311,12 @@
           <t>2-s2.0-84924962003</t>
         </is>
       </c>
+      <c r="BT86" t="n">
+        <v>1596</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -19024,6 +19544,12 @@
           <t>2-s2.0-84924985648</t>
         </is>
       </c>
+      <c r="BT87" t="n">
+        <v>10623</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19229,6 +19755,12 @@
           <t>2-s2.0-84923218966</t>
         </is>
       </c>
+      <c r="BT88" t="n">
+        <v>4110</v>
+      </c>
+      <c r="BU88" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19434,6 +19966,12 @@
           <t>2-s2.0-84918778721</t>
         </is>
       </c>
+      <c r="BT89" t="n">
+        <v>3005</v>
+      </c>
+      <c r="BU89" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19655,6 +20193,12 @@
           <t>2-s2.0-84919401848</t>
         </is>
       </c>
+      <c r="BT90" t="n">
+        <v>1828</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19870,6 +20414,12 @@
           <t>2-s2.0-84920172590</t>
         </is>
       </c>
+      <c r="BT91" t="n">
+        <v>1502</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -20083,6 +20633,12 @@
           <t>2-s2.0-84920654889</t>
         </is>
       </c>
+      <c r="BT92" t="n">
+        <v>1490</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -20288,6 +20844,12 @@
           <t>2-s2.0-84920680054</t>
         </is>
       </c>
+      <c r="BT93" t="n">
+        <v>890</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20503,6 +21065,12 @@
           <t>2-s2.0-84920694670</t>
         </is>
       </c>
+      <c r="BT94" t="n">
+        <v>2244</v>
+      </c>
+      <c r="BU94" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20708,6 +21276,12 @@
           <t>2-s2.0-84920919946</t>
         </is>
       </c>
+      <c r="BT95" t="n">
+        <v>3504</v>
+      </c>
+      <c r="BU95" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -20929,6 +21503,12 @@
           <t>2-s2.0-84922749745</t>
         </is>
       </c>
+      <c r="BT96" t="n">
+        <v>1382</v>
+      </c>
+      <c r="BU96" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -21142,6 +21722,12 @@
           <t>2-s2.0-84922678174</t>
         </is>
       </c>
+      <c r="BT97" t="n">
+        <v>1507</v>
+      </c>
+      <c r="BU97" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -21355,6 +21941,12 @@
           <t>2-s2.0-84921019868</t>
         </is>
       </c>
+      <c r="BT98" t="n">
+        <v>1321</v>
+      </c>
+      <c r="BU98" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -21560,6 +22152,12 @@
           <t>2-s2.0-84921034000</t>
         </is>
       </c>
+      <c r="BT99" t="n">
+        <v>948</v>
+      </c>
+      <c r="BU99" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -21773,6 +22371,12 @@
           <t>2-s2.0-84921477237</t>
         </is>
       </c>
+      <c r="BT100" t="n">
+        <v>1032</v>
+      </c>
+      <c r="BU100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -21986,6 +22590,12 @@
           <t>2-s2.0-84921452077</t>
         </is>
       </c>
+      <c r="BT101" t="n">
+        <v>755</v>
+      </c>
+      <c r="BU101" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -22195,6 +22805,12 @@
           <t>2-s2.0-84921533771</t>
         </is>
       </c>
+      <c r="BT102" t="n">
+        <v>1145</v>
+      </c>
+      <c r="BU102" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -22416,6 +23032,12 @@
           <t>2-s2.0-84921751932</t>
         </is>
       </c>
+      <c r="BT103" t="n">
+        <v>1247</v>
+      </c>
+      <c r="BU103" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -22633,6 +23255,12 @@
           <t>2-s2.0-84920628866</t>
         </is>
       </c>
+      <c r="BT104" t="n">
+        <v>2117</v>
+      </c>
+      <c r="BU104" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -22842,6 +23470,12 @@
           <t>2-s2.0-84913554048</t>
         </is>
       </c>
+      <c r="BT105" t="n">
+        <v>1409</v>
+      </c>
+      <c r="BU105" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -23057,6 +23691,12 @@
           <t>2-s2.0-84916631305</t>
         </is>
       </c>
+      <c r="BT106" t="n">
+        <v>2540</v>
+      </c>
+      <c r="BU106" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -23274,6 +23914,12 @@
           <t>2-s2.0-84916623128</t>
         </is>
       </c>
+      <c r="BT107" t="n">
+        <v>4733</v>
+      </c>
+      <c r="BU107" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -23483,6 +24129,12 @@
           <t>2-s2.0-84919663753</t>
         </is>
       </c>
+      <c r="BT108" t="n">
+        <v>1685</v>
+      </c>
+      <c r="BU108" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -23688,6 +24340,12 @@
           <t>2-s2.0-84919632485</t>
         </is>
       </c>
+      <c r="BT109" t="n">
+        <v>1943</v>
+      </c>
+      <c r="BU109" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -23901,6 +24559,12 @@
           <t>2-s2.0-84918818059</t>
         </is>
       </c>
+      <c r="BT110" t="n">
+        <v>1166</v>
+      </c>
+      <c r="BU110" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -24120,6 +24784,12 @@
           <t>2-s2.0-84919694578</t>
         </is>
       </c>
+      <c r="BT111" t="n">
+        <v>5811</v>
+      </c>
+      <c r="BU111" t="n">
+        <v>102</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
